--- a/PowerAndThrustData.xlsx
+++ b/PowerAndThrustData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="BHRay" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="NRL4fin" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="UVTunabot" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="VTechCyro" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="compiledData" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t xml:space="preserve">Length</t>
   </si>
@@ -109,6 +110,114 @@
   <si>
     <t xml:space="preserve">Propulsion Power</t>
   </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Side Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ba0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nta4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nta3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nta0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nba4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nba3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nba2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nba1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nba0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboSalmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faKnifefish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uvTunabot</t>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +261,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,12 +278,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -195,7 +319,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,8 +340,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -292,7 +420,501 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RoboSalmon!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.98177589105464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4631810588046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.11359430556493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.06483122940882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="41827155"/>
+        <c:axId val="71434394"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="41827155"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71434394"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="71434394"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41827155"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FloridaAtlanticKnifefish!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.038121546961326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0917127071823204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.133701657458563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.177348066298342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.220994475138121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.250276243093922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FloridaAtlanticKnifefish!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.257873653859178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.477913453506336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.789157015090968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23698367698425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.73384711646073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.26240191193118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="246454"/>
+        <c:axId val="232955"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="246454"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232955"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="232955"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="246454"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -327,7 +949,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -337,6 +959,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -344,15 +967,10 @@
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln w="0">
+              <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="004586"/>
                 </a:solidFill>
@@ -439,22 +1057,22 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="23714908"/>
-        <c:axId val="46921754"/>
+        <c:axId val="4916560"/>
+        <c:axId val="45596140"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23714908"/>
+        <c:axId val="4916560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln>
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -471,12 +1089,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46921754"/>
+        <c:crossAx val="45596140"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46921754"/>
+        <c:axId val="45596140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,19 +1102,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="0">
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln>
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -513,13 +1131,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23714908"/>
+        <c:crossAx val="4916560"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:solidFill>
             <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
@@ -533,7 +1151,272 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UVTunabot!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.347806392278595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.769840810731843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.57766114530776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.203082502711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.77623985457654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.21389170501942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.36974688161205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7133406803292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.97884388744977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UVTunabot!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.9822953918306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.77355495665088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.16473372386153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.19436743905976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0306749243708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.2398352731677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.8417870712421</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.8860627773238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.8086734945154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="56872841"/>
+        <c:axId val="95356422"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="56872841"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95356422"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="95356422"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56872841"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -544,6 +1427,76 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>250920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>507960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="976680" y="2492640"/>
+        <a:ext cx="5761800" cy="3231720"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>654120</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685080</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2265480" y="3368880"/>
+        <a:ext cx="5751720" cy="3231720"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>541440</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -551,18 +1504,53 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>374040</xdr:colOff>
+      <xdr:colOff>372240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="541440" y="4556520"/>
-        <a:ext cx="5757480" cy="3232440"/>
+        <a:ext cx="5751360" cy="3230640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>524520</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1832400" y="3154680"/>
+        <a:ext cx="5762160" cy="3231720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -583,10 +1571,10 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
@@ -752,7 +1740,7 @@
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">E5/D5</f>
-        <v>94.3862664260996</v>
+        <v>94.3862664260995</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>10</v>
@@ -1338,6 +2326,9 @@
       <c r="F26" s="1" t="n">
         <f aca="false">E26/D26</f>
         <v>136.396828228227</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +2353,7 @@
       <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.29"/>
@@ -1575,11 +2566,11 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
@@ -1649,8 +2640,7 @@
         <v>3.98177589105464</v>
       </c>
       <c r="I2" s="0" t="n">
-        <f aca="false">H2/E2</f>
-        <v>72.1568541625951</v>
+        <v>14.7258886046112</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1676,8 +2666,7 @@
         <v>4.4631810588046</v>
       </c>
       <c r="I3" s="0" t="n">
-        <f aca="false">H3/E3</f>
-        <v>57.2799175634646</v>
+        <v>11.6897790945846</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1703,8 +2692,7 @@
         <v>5.11359430556493</v>
       </c>
       <c r="I4" s="0" t="n">
-        <f aca="false">H4/E4</f>
-        <v>56.7204418853393</v>
+        <v>11.5756003847631</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1730,8 +2718,7 @@
         <v>5.06483122940882</v>
       </c>
       <c r="I5" s="0" t="n">
-        <f aca="false">H5/E5</f>
-        <v>54.9883343034765</v>
+        <v>11.2221090415258</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1757,8 +2744,7 @@
         <v>4.21331002735237</v>
       </c>
       <c r="I6" s="0" t="n">
-        <f aca="false">H6/E6</f>
-        <v>69.0108699050808</v>
+        <v>14.0838510010369</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1784,8 +2770,7 @@
         <v>4.82501281043646</v>
       </c>
       <c r="I7" s="0" t="n">
-        <f aca="false">H7/E7</f>
-        <v>54.7868166961029</v>
+        <v>11.1809829992047</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1811,8 +2796,7 @@
         <v>4.90894059889513</v>
       </c>
       <c r="I8" s="0" t="n">
-        <f aca="false">H8/E8</f>
-        <v>62.0176772098691</v>
+        <v>12.6566688183406</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1838,8 +2822,7 @@
         <v>5.53346511359994</v>
       </c>
       <c r="I9" s="0" t="n">
-        <f aca="false">H9/E9</f>
-        <v>38.711728664024</v>
+        <v>7.90035278857632</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1865,8 +2848,7 @@
         <v>4.94677090010305</v>
       </c>
       <c r="I10" s="0" t="n">
-        <f aca="false">H10/E10</f>
-        <v>57.4416834561856</v>
+        <v>11.7227925420787</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1908,6 +2890,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1919,10 +2902,10 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.29"/>
@@ -2274,6 +3257,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2284,11 +3268,11 @@
   </sheetPr>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.29"/>
@@ -2332,7 +3316,9 @@
       <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -2376,6 +3362,10 @@
         <f aca="false">J2*1025*I2^3*A$2^2</f>
         <v>0.208061651217001</v>
       </c>
+      <c r="L2" s="1" t="n">
+        <f aca="false">K2/(B$2*I2)</f>
+        <v>0.12377736623161</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
@@ -2409,6 +3399,10 @@
         <f aca="false">J3*1025*I3^3*A$2^2</f>
         <v>0.107970236608583</v>
       </c>
+      <c r="L3" s="1" t="n">
+        <f aca="false">K3/(B$2*I3)</f>
+        <v>0.0799311225588059</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2443,6 +3437,10 @@
         <f aca="false">J4*1025*I4^3*A$2^2</f>
         <v>0.0815551525196342</v>
       </c>
+      <c r="L4" s="1" t="n">
+        <f aca="false">K4/(B$2*I4)</f>
+        <v>0.0848960031906478</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -2475,7 +3473,11 @@
       </c>
       <c r="K5" s="1" t="n">
         <f aca="false">J5*1025*I5^3*A$2^2</f>
-        <v>0.0919117335495684</v>
+        <v>0.0919117335495685</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <f aca="false">K5/(B$2*I5)</f>
+        <v>0.115836015929044</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2511,6 +3513,10 @@
         <f aca="false">J6*1025*I6^3*A$2^2</f>
         <v>0.0843508567307659</v>
       </c>
+      <c r="L6" s="1" t="n">
+        <f aca="false">K6/(B$2*I6)</f>
+        <v>0.125223659695886</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -2543,7 +3549,11 @@
       </c>
       <c r="K7" s="1" t="n">
         <f aca="false">J7*1025*I7^3*A$2^2</f>
-        <v>0.0832422031541778</v>
+        <v>0.0832422031541779</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">K7/(B$2*I7)</f>
+        <v>0.141835476529011</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -2579,6 +3589,10 @@
         <f aca="false">J8*1025*I8^3*A$2^2</f>
         <v>0.123638187380631</v>
       </c>
+      <c r="L8" s="1" t="n">
+        <f aca="false">K8/(B$2*I8)</f>
+        <v>0.237478863408092</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2613,6 +3627,10 @@
         <f aca="false">J9*1025*I9^3*A$2^2</f>
         <v>0.124710483181599</v>
       </c>
+      <c r="L9" s="1" t="n">
+        <f aca="false">K9/(B$2*I9)</f>
+        <v>0.267198815504065</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2647,6 +3665,10 @@
         <f aca="false">J10*1025*I10^3*A$2^2</f>
         <v>0.0909004112984863</v>
       </c>
+      <c r="L10" s="1" t="n">
+        <f aca="false">K10/(B$2*I10)</f>
+        <v>0.228361248323409</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
@@ -2668,6 +3690,10 @@
         <f aca="false">J11*1025*I11^3*A$2^2</f>
         <v>0.0881010684438245</v>
       </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">K11/(B$2*I11)</f>
+        <v>0.240869198624022</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
@@ -2689,6 +3715,10 @@
         <f aca="false">J12*1025*I12^3*A$2^2</f>
         <v>0.0820668221025639</v>
       </c>
+      <c r="L12" s="1" t="n">
+        <f aca="false">K12/(B$2*I12)</f>
+        <v>0.242775878343008</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
@@ -2708,7 +3738,11 @@
       </c>
       <c r="K13" s="1" t="n">
         <f aca="false">J13*1025*I13^3*A$2^2</f>
-        <v>0.0921632547032719</v>
+        <v>0.092163254703272</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <f aca="false">K13/(B$2*I13)</f>
+        <v>0.285590127360143</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2731,6 +3765,10 @@
         <f aca="false">J14*1025*I14^3*A$2^2</f>
         <v>0.0657638343312756</v>
       </c>
+      <c r="L14" s="1" t="n">
+        <f aca="false">K14/(B$2*I14)</f>
+        <v>0.0657458555139253</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="0" t="n">
@@ -2750,6 +3788,10 @@
         <f aca="false">J15*1025*I15^3*A$2^2</f>
         <v>0.0184547659415858</v>
       </c>
+      <c r="L15" s="1" t="n">
+        <f aca="false">K15/(B$2*I15)</f>
+        <v>0.0320179212033301</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="0" t="n">
@@ -2769,6 +3811,10 @@
         <f aca="false">J16*1025*I16^3*A$2^2</f>
         <v>0.0140978044029733</v>
       </c>
+      <c r="L16" s="1" t="n">
+        <f aca="false">K16/(B$2*I16)</f>
+        <v>0.0296702552337515</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="0" t="n">
@@ -2788,7 +3834,10 @@
         <f aca="false">J17*1025*I17^3*A$2^2</f>
         <v>0.0121465233692303</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="1" t="n">
+        <f aca="false">K17/(B$2*I17)</f>
+        <v>0.0300536783270127</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="n">
@@ -2808,6 +3857,10 @@
         <f aca="false">J18*1025*I18^3*A$2^2</f>
         <v>0.00998984120198844</v>
       </c>
+      <c r="L18" s="1" t="n">
+        <f aca="false">K18/(B$2*I18)</f>
+        <v>0.0283282696640262</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="0" t="n">
@@ -2827,6 +3880,10 @@
         <f aca="false">J19*1025*I19^3*A$2^2</f>
         <v>0.0108655376488835</v>
       </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">K19/(B$2*I19)</f>
+        <v>0.0348726786908131</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="0" t="n">
@@ -2846,6 +3903,10 @@
         <f aca="false">J20*1025*I20^3*A$2^2</f>
         <v>0.0106420163290614</v>
       </c>
+      <c r="L20" s="1" t="n">
+        <f aca="false">K20/(B$2*I20)</f>
+        <v>0.0380455164471664</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="0" t="n">
@@ -2865,6 +3926,10 @@
         <f aca="false">J21*1025*I21^3*A$2^2</f>
         <v>0.0100858012584801</v>
       </c>
+      <c r="L21" s="1" t="n">
+        <f aca="false">K21/(B$2*I21)</f>
+        <v>0.0422294782613866</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G22" s="0" t="n">
@@ -2884,6 +3949,10 @@
         <f aca="false">J22*1025*I22^3*A$2^2</f>
         <v>0.0101500205691382</v>
       </c>
+      <c r="L22" s="1" t="n">
+        <f aca="false">K22/(B$2*I22)</f>
+        <v>0.0463754976499005</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="0" t="n">
@@ -2903,6 +3972,10 @@
         <f aca="false">J23*1025*I23^3*A$2^2</f>
         <v>0.0100989093867072</v>
       </c>
+      <c r="L23" s="1" t="n">
+        <f aca="false">K23/(B$2*I23)</f>
+        <v>0.0498336598553414</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="n">
@@ -2921,6 +3994,10 @@
       <c r="K24" s="1" t="n">
         <f aca="false">J24*1025*I24^3*A$2^2</f>
         <v>0.0121506702334491</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <f aca="false">K24/(B$2*I24)</f>
+        <v>0.0628028893239884</v>
       </c>
     </row>
   </sheetData>
@@ -2946,7 +4023,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
@@ -2979,7 +4056,7 @@
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -3107,10 +4184,10 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
@@ -3163,7 +4240,7 @@
       <c r="C2" s="0" t="n">
         <v>2.47708149086495</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="0" t="n">
         <v>0.347806392278595</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -3400,6 +4477,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3414,12 +4492,12 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="11.99"/>
@@ -3460,10 +4538,10 @@
       <c r="B2" s="0" t="n">
         <v>0.042</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="0" t="n">
         <v>48</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -3539,4 +4617,2231 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AJ20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.0551822267927907</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>14.7258886046112</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0.174555</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0.293086</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0.201284</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>0.110346</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <v>-7.26796</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>20.563468</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>-22.847882</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>13.260921</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>-4.659907</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>0.961555</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>0.007862</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>7.544921</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>-22.56486</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>26.168475</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>-15.334019</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>5.200607</v>
+      </c>
+      <c r="Y2" s="6" t="n">
+        <v>-0.99769</v>
+      </c>
+      <c r="Z2" s="6" t="n">
+        <v>-0.020522</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="AB2" s="6" t="n">
+        <v>0.143555</v>
+      </c>
+      <c r="AC2" s="6" t="n">
+        <v>0.012632</v>
+      </c>
+      <c r="AD2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="AG2" s="6" t="n">
+        <v>0.143555</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>0.012632</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.0779187758756726</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>11.6897790945846</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.174555</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0.293086</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0.201284</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>0.110346</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>-7.26796</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>20.563468</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>-22.847882</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>13.260921</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>-4.659907</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>0.961555</v>
+      </c>
+      <c r="S3" s="6" t="n">
+        <v>0.007862</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>7.544921</v>
+      </c>
+      <c r="U3" s="6" t="n">
+        <v>-22.56486</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <v>26.168475</v>
+      </c>
+      <c r="W3" s="6" t="n">
+        <v>-15.334019</v>
+      </c>
+      <c r="X3" s="6" t="n">
+        <v>5.200607</v>
+      </c>
+      <c r="Y3" s="6" t="n">
+        <v>-0.99769</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>-0.020522</v>
+      </c>
+      <c r="AA3" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="AB3" s="6" t="n">
+        <v>0.143555</v>
+      </c>
+      <c r="AC3" s="6" t="n">
+        <v>0.012632</v>
+      </c>
+      <c r="AD3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="AG3" s="6" t="n">
+        <v>0.143555</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <v>0.012632</v>
+      </c>
+      <c r="AI3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.0901543453399409</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>11.5756003847631</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.174555</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.293086</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.201284</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.110346</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-7.26796</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>20.563468</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-22.847882</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>13.260921</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>-4.659907</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>0.961555</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>0.007862</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>7.544921</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>-22.56486</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>26.168475</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>-15.334019</v>
+      </c>
+      <c r="X4" s="6" t="n">
+        <v>5.200607</v>
+      </c>
+      <c r="Y4" s="6" t="n">
+        <v>-0.99769</v>
+      </c>
+      <c r="Z4" s="6" t="n">
+        <v>-0.020522</v>
+      </c>
+      <c r="AA4" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="AB4" s="6" t="n">
+        <v>0.143555</v>
+      </c>
+      <c r="AC4" s="6" t="n">
+        <v>0.012632</v>
+      </c>
+      <c r="AD4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="AG4" s="6" t="n">
+        <v>0.143555</v>
+      </c>
+      <c r="AH4" s="6" t="n">
+        <v>0.012632</v>
+      </c>
+      <c r="AI4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.0921073768384471</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>11.2221090415258</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.174555</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.293086</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.201284</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.110346</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-7.26796</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>20.563468</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-22.847882</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>13.260921</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>-4.659907</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>0.961555</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>0.007862</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>7.544921</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>-22.56486</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>26.168475</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>-15.334019</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <v>5.200607</v>
+      </c>
+      <c r="Y5" s="6" t="n">
+        <v>-0.99769</v>
+      </c>
+      <c r="Z5" s="6" t="n">
+        <v>-0.020522</v>
+      </c>
+      <c r="AA5" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="AB5" s="6" t="n">
+        <v>0.143555</v>
+      </c>
+      <c r="AC5" s="6" t="n">
+        <v>0.012632</v>
+      </c>
+      <c r="AD5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="6" t="n">
+        <v>0.289474</v>
+      </c>
+      <c r="AG5" s="6" t="n">
+        <v>0.143555</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <v>0.012632</v>
+      </c>
+      <c r="AI5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.038121546961326</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>6.5040650406504</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.504785</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.357151</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.272803</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-36.538935</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>106.782995</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>-120.461448</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>66.553295</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>-18.946573</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>2.679381</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>-0.001356</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>34.012798</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>-104.583082</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>125.325107</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>-73.174818</v>
+      </c>
+      <c r="X6" s="6" t="n">
+        <v>21.142012</v>
+      </c>
+      <c r="Y6" s="6" t="n">
+        <v>-2.660859</v>
+      </c>
+      <c r="Z6" s="6" t="n">
+        <v>-0.068477</v>
+      </c>
+      <c r="AA6" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AB6" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AC6" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AD6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AG6" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AH6" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AI6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.0917127071823204</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>5.130081300813</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.504785</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.357151</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.272803</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-36.538935</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>106.782995</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-120.461448</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>66.553295</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>-18.946573</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>2.679381</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>-0.001356</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>34.012798</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>-104.583082</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>125.325107</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>-73.174818</v>
+      </c>
+      <c r="X7" s="6" t="n">
+        <v>21.142012</v>
+      </c>
+      <c r="Y7" s="6" t="n">
+        <v>-2.660859</v>
+      </c>
+      <c r="Z7" s="6" t="n">
+        <v>-0.068477</v>
+      </c>
+      <c r="AA7" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AB7" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AC7" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AD7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AG7" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AH7" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AI7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.133701657458563</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>5.85365853658536</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.504785</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.357151</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.272803</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-36.538935</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>106.782995</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-120.461448</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>66.553295</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>-18.946573</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>2.679381</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>-0.001356</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>34.012798</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>-104.583082</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>125.325107</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>-73.174818</v>
+      </c>
+      <c r="X8" s="6" t="n">
+        <v>21.142012</v>
+      </c>
+      <c r="Y8" s="6" t="n">
+        <v>-2.660859</v>
+      </c>
+      <c r="Z8" s="6" t="n">
+        <v>-0.068477</v>
+      </c>
+      <c r="AA8" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AB8" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AC8" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AD8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AG8" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AH8" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AI8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.177348066298342</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>6.88617886178861</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.504785</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.357151</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.272803</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>-36.538935</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>106.782995</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>-120.461448</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>66.553295</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>-18.946573</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>2.679381</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>-0.001356</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>34.012798</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>-104.583082</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>125.325107</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>-73.174818</v>
+      </c>
+      <c r="X9" s="6" t="n">
+        <v>21.142012</v>
+      </c>
+      <c r="Y9" s="6" t="n">
+        <v>-2.660859</v>
+      </c>
+      <c r="Z9" s="6" t="n">
+        <v>-0.068477</v>
+      </c>
+      <c r="AA9" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AB9" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AC9" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AD9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AG9" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AH9" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AI9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.220994475138121</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>7.78861788617886</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.504785</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.357151</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.272803</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-36.538935</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>106.782995</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>-120.461448</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>66.553295</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>-18.946573</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>2.679381</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>-0.001356</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>34.012798</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>-104.583082</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>125.325107</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>-73.174818</v>
+      </c>
+      <c r="X10" s="6" t="n">
+        <v>21.142012</v>
+      </c>
+      <c r="Y10" s="6" t="n">
+        <v>-2.660859</v>
+      </c>
+      <c r="Z10" s="6" t="n">
+        <v>-0.068477</v>
+      </c>
+      <c r="AA10" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AB10" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AC10" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AD10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AG10" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AH10" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AI10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.250276243093922</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.504785</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.357151</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.272803</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-36.538935</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>106.782995</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>-120.461448</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>66.553295</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>-18.946573</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>2.679381</v>
+      </c>
+      <c r="S11" s="6" t="n">
+        <v>-0.001356</v>
+      </c>
+      <c r="T11" s="6" t="n">
+        <v>34.012798</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>-104.583082</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>125.325107</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>-73.174818</v>
+      </c>
+      <c r="X11" s="6" t="n">
+        <v>21.142012</v>
+      </c>
+      <c r="Y11" s="6" t="n">
+        <v>-2.660859</v>
+      </c>
+      <c r="Z11" s="6" t="n">
+        <v>-0.068477</v>
+      </c>
+      <c r="AA11" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AB11" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AC11" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AD11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="6" t="n">
+        <v>0.396476</v>
+      </c>
+      <c r="AG11" s="6" t="n">
+        <v>0.189427</v>
+      </c>
+      <c r="AH11" s="6" t="n">
+        <v>0.068282</v>
+      </c>
+      <c r="AI11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.347806392278595</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>5.69942196531791</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.239633</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.394649</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.318773</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.109935</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-0.000518</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>-6.665248</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>21.669911</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>-26.526963</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>15.699806</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>-5.434693</v>
+      </c>
+      <c r="R12" s="6" t="n">
+        <v>1.272402</v>
+      </c>
+      <c r="S12" s="6" t="n">
+        <v>-6.1E-005</v>
+      </c>
+      <c r="T12" s="6" t="n">
+        <v>6.580986</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>-21.598387</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>26.721451</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>-15.780824</v>
+      </c>
+      <c r="X12" s="6" t="n">
+        <v>5.225977</v>
+      </c>
+      <c r="Y12" s="6" t="n">
+        <v>-1.134707</v>
+      </c>
+      <c r="Z12" s="6" t="n">
+        <v>-0.019814</v>
+      </c>
+      <c r="AA12" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AB12" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AC12" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AD12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AG12" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AH12" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AI12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.769840810731843</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>4.90173410404624</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.239633</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.394649</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.318773</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.109935</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.000518</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-6.665248</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>21.669911</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>-26.526963</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>15.699806</v>
+      </c>
+      <c r="Q13" s="6" t="n">
+        <v>-5.434693</v>
+      </c>
+      <c r="R13" s="6" t="n">
+        <v>1.272402</v>
+      </c>
+      <c r="S13" s="6" t="n">
+        <v>-6.1E-005</v>
+      </c>
+      <c r="T13" s="6" t="n">
+        <v>6.580986</v>
+      </c>
+      <c r="U13" s="6" t="n">
+        <v>-21.598387</v>
+      </c>
+      <c r="V13" s="6" t="n">
+        <v>26.721451</v>
+      </c>
+      <c r="W13" s="6" t="n">
+        <v>-15.780824</v>
+      </c>
+      <c r="X13" s="6" t="n">
+        <v>5.225977</v>
+      </c>
+      <c r="Y13" s="6" t="n">
+        <v>-1.134707</v>
+      </c>
+      <c r="Z13" s="6" t="n">
+        <v>-0.019814</v>
+      </c>
+      <c r="AA13" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AB13" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AC13" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AD13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AG13" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AH13" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AI13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.57766114530776</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>3.90751445086705</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.239633</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.394649</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.318773</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.109935</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.000518</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-6.665248</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>21.669911</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-26.526963</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>15.699806</v>
+      </c>
+      <c r="Q14" s="6" t="n">
+        <v>-5.434693</v>
+      </c>
+      <c r="R14" s="6" t="n">
+        <v>1.272402</v>
+      </c>
+      <c r="S14" s="6" t="n">
+        <v>-6.1E-005</v>
+      </c>
+      <c r="T14" s="6" t="n">
+        <v>6.580986</v>
+      </c>
+      <c r="U14" s="6" t="n">
+        <v>-21.598387</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>26.721451</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>-15.780824</v>
+      </c>
+      <c r="X14" s="6" t="n">
+        <v>5.225977</v>
+      </c>
+      <c r="Y14" s="6" t="n">
+        <v>-1.134707</v>
+      </c>
+      <c r="Z14" s="6" t="n">
+        <v>-0.019814</v>
+      </c>
+      <c r="AA14" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AB14" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AC14" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AD14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AG14" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AH14" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AI14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.203082502711</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>4.17341040462427</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.239633</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.394649</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.318773</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.109935</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.000518</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-6.665248</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>21.669911</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>-26.526963</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>15.699806</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>-5.434693</v>
+      </c>
+      <c r="R15" s="6" t="n">
+        <v>1.272402</v>
+      </c>
+      <c r="S15" s="6" t="n">
+        <v>-6.1E-005</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <v>6.580986</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>-21.598387</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>26.721451</v>
+      </c>
+      <c r="W15" s="6" t="n">
+        <v>-15.780824</v>
+      </c>
+      <c r="X15" s="6" t="n">
+        <v>5.225977</v>
+      </c>
+      <c r="Y15" s="6" t="n">
+        <v>-1.134707</v>
+      </c>
+      <c r="Z15" s="6" t="n">
+        <v>-0.019814</v>
+      </c>
+      <c r="AA15" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AB15" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AC15" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AD15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AG15" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AH15" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AI15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2.77623985457654</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>4.69364161849711</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.239633</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.394649</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.318773</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>0.109935</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>-0.000518</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>-6.665248</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>21.669911</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>-26.526963</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>15.699806</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>-5.434693</v>
+      </c>
+      <c r="R16" s="6" t="n">
+        <v>1.272402</v>
+      </c>
+      <c r="S16" s="6" t="n">
+        <v>-6.1E-005</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>6.580986</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>-21.598387</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>26.721451</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>-15.780824</v>
+      </c>
+      <c r="X16" s="6" t="n">
+        <v>5.225977</v>
+      </c>
+      <c r="Y16" s="6" t="n">
+        <v>-1.134707</v>
+      </c>
+      <c r="Z16" s="6" t="n">
+        <v>-0.019814</v>
+      </c>
+      <c r="AA16" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AB16" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AC16" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AD16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AG16" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AH16" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AI16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3.21389170501942</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>5.36416184971098</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.239633</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0.394649</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0.318773</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>0.109935</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <v>-0.000518</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>-6.665248</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>21.669911</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>-26.526963</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>15.699806</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>-5.434693</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>1.272402</v>
+      </c>
+      <c r="S17" s="6" t="n">
+        <v>-6.1E-005</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>6.580986</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>-21.598387</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>26.721451</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>-15.780824</v>
+      </c>
+      <c r="X17" s="6" t="n">
+        <v>5.225977</v>
+      </c>
+      <c r="Y17" s="6" t="n">
+        <v>-1.134707</v>
+      </c>
+      <c r="Z17" s="6" t="n">
+        <v>-0.019814</v>
+      </c>
+      <c r="AA17" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AB17" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AC17" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AD17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AG17" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AH17" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AI17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3.36974688161205</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>6.18497109826589</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.239633</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.394649</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.318773</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>0.109935</v>
+      </c>
+      <c r="L18" s="6" t="n">
+        <v>-0.000518</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>-6.665248</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>21.669911</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>-26.526963</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>15.699806</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>-5.434693</v>
+      </c>
+      <c r="R18" s="6" t="n">
+        <v>1.272402</v>
+      </c>
+      <c r="S18" s="6" t="n">
+        <v>-6.1E-005</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <v>6.580986</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>-21.598387</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>26.721451</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>-15.780824</v>
+      </c>
+      <c r="X18" s="6" t="n">
+        <v>5.225977</v>
+      </c>
+      <c r="Y18" s="6" t="n">
+        <v>-1.134707</v>
+      </c>
+      <c r="Z18" s="6" t="n">
+        <v>-0.019814</v>
+      </c>
+      <c r="AA18" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AB18" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AC18" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AD18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AG18" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AH18" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AI18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3.7133406803292</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>6.97109826589595</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.239633</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.394649</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.318773</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>0.109935</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>-0.000518</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>-6.665248</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>21.669911</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>-26.526963</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>15.699806</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>-5.434693</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>1.272402</v>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>-6.1E-005</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>6.580986</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>-21.598387</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>26.721451</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>-15.780824</v>
+      </c>
+      <c r="X19" s="6" t="n">
+        <v>5.225977</v>
+      </c>
+      <c r="Y19" s="6" t="n">
+        <v>-1.134707</v>
+      </c>
+      <c r="Z19" s="6" t="n">
+        <v>-0.019814</v>
+      </c>
+      <c r="AA19" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AB19" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AC19" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AD19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AG19" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AH19" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AI19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3.97884388744977</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>8.49710982658959</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.239633</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0.394649</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>0.318773</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>0.109935</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>-0.000518</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>-6.665248</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>21.669911</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>-26.526963</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>15.699806</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>-5.434693</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>1.272402</v>
+      </c>
+      <c r="S20" s="6" t="n">
+        <v>-6.1E-005</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>6.580986</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>-21.598387</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>26.721451</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>-15.780824</v>
+      </c>
+      <c r="X20" s="6" t="n">
+        <v>5.225977</v>
+      </c>
+      <c r="Y20" s="6" t="n">
+        <v>-1.134707</v>
+      </c>
+      <c r="Z20" s="6" t="n">
+        <v>-0.019814</v>
+      </c>
+      <c r="AA20" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AB20" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AC20" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AD20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="6" t="n">
+        <v>0.443902</v>
+      </c>
+      <c r="AG20" s="6" t="n">
+        <v>0.202633</v>
+      </c>
+      <c r="AH20" s="6" t="n">
+        <v>0.012845</v>
+      </c>
+      <c r="AI20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/PowerAndThrustData.xlsx
+++ b/PowerAndThrustData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="BHRay" sheetId="1" state="visible" r:id="rId2"/>
@@ -420,7 +420,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -544,11 +544,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41827155"/>
-        <c:axId val="71434394"/>
+        <c:axId val="93942534"/>
+        <c:axId val="73405901"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41827155"/>
+        <c:axId val="93942534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,12 +576,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71434394"/>
+        <c:crossAx val="73405901"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71434394"/>
+        <c:axId val="73405901"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +618,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41827155"/>
+        <c:crossAx val="93942534"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -666,7 +666,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -792,11 +792,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="246454"/>
-        <c:axId val="232955"/>
+        <c:axId val="60414477"/>
+        <c:axId val="6592776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246454"/>
+        <c:axId val="60414477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,12 +824,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232955"/>
+        <c:crossAx val="6592776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232955"/>
+        <c:axId val="6592776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,7 +866,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246454"/>
+        <c:crossAx val="60414477"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -914,7 +914,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1057,11 +1057,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="4916560"/>
-        <c:axId val="45596140"/>
+        <c:axId val="62525596"/>
+        <c:axId val="54883288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4916560"/>
+        <c:axId val="62525596"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,12 +1089,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45596140"/>
+        <c:crossAx val="54883288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45596140"/>
+        <c:axId val="54883288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1131,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4916560"/>
+        <c:crossAx val="62525596"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1158,7 +1158,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1270,42 +1270,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.9822953918306</c:v>
+                  <c:v>0.606582389900164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.77355495665088</c:v>
+                  <c:v>1.15470781673517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.16473372386153</c:v>
+                  <c:v>1.88640851950163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.19436743905976</c:v>
+                  <c:v>2.81347643635229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0306749243708</c:v>
+                  <c:v>3.98738652685747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.2398352731677</c:v>
+                  <c:v>5.27538959358933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.8417870712421</c:v>
+                  <c:v>6.37758684380009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.8860627773238</c:v>
+                  <c:v>7.92113520986108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.8086734945154</c:v>
+                  <c:v>10.3454540893217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="56872841"/>
-        <c:axId val="95356422"/>
+        <c:axId val="79029233"/>
+        <c:axId val="4751868"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56872841"/>
+        <c:axId val="79029233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,12 +1333,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95356422"/>
+        <c:crossAx val="4751868"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95356422"/>
+        <c:axId val="4751868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56872841"/>
+        <c:crossAx val="79029233"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1434,9 +1434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>507960</xdr:colOff>
+      <xdr:colOff>507600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1445,7 +1445,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="976680" y="2492640"/>
-        <a:ext cx="5761800" cy="3231720"/>
+        <a:ext cx="5761440" cy="3231360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1469,9 +1469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>685080</xdr:colOff>
+      <xdr:colOff>684720</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1480,7 +1480,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2265480" y="3368880"/>
-        <a:ext cx="5751720" cy="3231720"/>
+        <a:ext cx="5751360" cy="3231360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1504,9 +1504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>372240</xdr:colOff>
+      <xdr:colOff>371880</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1515,7 +1515,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="541440" y="4556520"/>
-        <a:ext cx="5751360" cy="3230640"/>
+        <a:ext cx="5751000" cy="3230280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1539,9 +1539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>524520</xdr:colOff>
+      <xdr:colOff>524160</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1550,7 +1550,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1832400" y="3154680"/>
-        <a:ext cx="5762160" cy="3231720"/>
+        <a:ext cx="5761800" cy="3231360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1571,10 +1571,10 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="1" sqref="H2:H10 G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
@@ -2350,10 +2350,10 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
+      <selection pane="topLeft" activeCell="E40" activeCellId="1" sqref="H2:H10 E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.29"/>
@@ -2567,10 +2567,10 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+      <selection pane="topLeft" activeCell="E54" activeCellId="1" sqref="H2:H10 E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
@@ -2902,10 +2902,10 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="1" sqref="H2:H10 H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.29"/>
@@ -3269,10 +3269,10 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="H2:H10 L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.29"/>
@@ -4020,10 +4020,10 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="H2:H10 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
@@ -4183,11 +4183,11 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
@@ -4253,8 +4253,8 @@
         <v>5.69942196531791</v>
       </c>
       <c r="H2" s="1" t="n">
-        <f aca="false">G2*D2</f>
-        <v>1.9822953918306</v>
+        <f aca="false">G2*D2*B$2</f>
+        <v>0.606582389900164</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -4276,8 +4276,8 @@
         <v>4.90173410404624</v>
       </c>
       <c r="H3" s="1" t="n">
-        <f aca="false">G3*D3</f>
-        <v>3.77355495665088</v>
+        <f aca="false">G3*D3*B$2</f>
+        <v>1.15470781673517</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -4300,8 +4300,8 @@
         <v>3.90751445086705</v>
       </c>
       <c r="H4" s="1" t="n">
-        <f aca="false">G4*D4</f>
-        <v>6.16473372386153</v>
+        <f aca="false">G4*D4*B$2</f>
+        <v>1.88640851950163</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -4324,8 +4324,8 @@
         <v>4.17341040462427</v>
       </c>
       <c r="H5" s="1" t="n">
-        <f aca="false">G5*D5</f>
-        <v>9.19436743905976</v>
+        <f aca="false">G5*D5*B$2</f>
+        <v>2.81347643635229</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -4348,8 +4348,8 @@
         <v>4.69364161849711</v>
       </c>
       <c r="H6" s="1" t="n">
-        <f aca="false">G6*D6</f>
-        <v>13.0306749243708</v>
+        <f aca="false">G6*D6*B$2</f>
+        <v>3.98738652685747</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -4372,8 +4372,8 @@
         <v>5.36416184971098</v>
       </c>
       <c r="H7" s="1" t="n">
-        <f aca="false">G7*D7</f>
-        <v>17.2398352731677</v>
+        <f aca="false">G7*D7*B$2</f>
+        <v>5.27538959358933</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -4396,8 +4396,8 @@
         <v>6.18497109826589</v>
       </c>
       <c r="H8" s="1" t="n">
-        <f aca="false">G8*D8</f>
-        <v>20.8417870712421</v>
+        <f aca="false">G8*D8*B$2</f>
+        <v>6.37758684380009</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -4420,8 +4420,8 @@
         <v>6.97109826589595</v>
       </c>
       <c r="H9" s="1" t="n">
-        <f aca="false">G9*D9</f>
-        <v>25.8860627773238</v>
+        <f aca="false">G9*D9*B$2</f>
+        <v>7.92113520986108</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -4444,8 +4444,8 @@
         <v>8.49710982658959</v>
       </c>
       <c r="H10" s="1" t="n">
-        <f aca="false">G10*D10</f>
-        <v>33.8086734945154</v>
+        <f aca="false">G10*D10*B$2</f>
+        <v>10.3454540893217</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -4489,10 +4489,10 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="H2:H10 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.29"/>
@@ -4626,11 +4626,11 @@
   </sheetPr>
   <dimension ref="A1:AJ20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="H2:H10 D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.37"/>
   </cols>
